--- a/public/docs/Hurricanes-Report.xlsx
+++ b/public/docs/Hurricanes-Report.xlsx
@@ -5,16 +5,16 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\my-portfolio-cursor\my-portfolio-lovable\public\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\my-portfolio\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2858B04E-330E-4E5A-AAE9-1F635331CA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15D13C-E24A-4FC9-A282-929A7066B8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hurricane Map" sheetId="2" r:id="rId1"/>
-    <sheet name="Florida Hurricanes" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Florida Hurricanes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
@@ -513,7 +513,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Vlad" refreshedDate="46016.717308912041" createdVersion="8" refreshedVersion="8" recordCount="675" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Vlad" refreshedDate="46016.732709374999" createdVersion="8" refreshedVersion="8" recordCount="675" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
